--- a/UvA/LargeDataset/Results.xlsx
+++ b/UvA/LargeDataset/Results.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:P1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,60 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>['', '']</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>32</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>256</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9873920511210893</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9812361746565094</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.9813206132602249</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.9890020384235453</v>
+      </c>
+      <c r="O2" t="n">
+        <v>404.6989099979401</v>
+      </c>
+      <c r="P2" t="n">
+        <v>202.3413822650909</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/UvA/LargeDataset/Results.xlsx
+++ b/UvA/LargeDataset/Results.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,438 @@
         <v>202.3413822650909</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>32</v>
+      </c>
+      <c r="I3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>256</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9097917965063573</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9243668538388904</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9247077910449035</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.9213743551510084</v>
+      </c>
+      <c r="O3" t="n">
+        <v>290.0301671028137</v>
+      </c>
+      <c r="P3" t="n">
+        <v>233.0213561058044</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32</v>
+      </c>
+      <c r="I4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>256</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.837295951854823</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9264414325164468</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9267729898060869</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.8581380194774533</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.589169979095459</v>
+      </c>
+      <c r="P4" t="n">
+        <v>232.8850328922272</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>32</v>
+      </c>
+      <c r="I5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>256</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9132139471504473</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9307091467157134</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.9310223889188776</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.9245332691405126</v>
+      </c>
+      <c r="O5" t="n">
+        <v>370.4066350460052</v>
+      </c>
+      <c r="P5" t="n">
+        <v>239.6799750328064</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>32</v>
+      </c>
+      <c r="I6" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>256</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9140199806766977</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9302733506434665</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.9305881187538583</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.9251495330680193</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5930430889129639</v>
+      </c>
+      <c r="P6" t="n">
+        <v>202.437383890152</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>32</v>
+      </c>
+      <c r="I7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>256</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.9163044178879687</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.9245029929702727</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.9248428756753467</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.9270024868647453</v>
+      </c>
+      <c r="O7" t="n">
+        <v>280.8699870109558</v>
+      </c>
+      <c r="P7" t="n">
+        <v>216.8287858963013</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>32</v>
+      </c>
+      <c r="I8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>256</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9208255071271201</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.9303732654229485</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.9306869878505435</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.9309828542847421</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.5139169692993164</v>
+      </c>
+      <c r="P8" t="n">
+        <v>216.0577948093414</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>32</v>
+      </c>
+      <c r="I9" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>256</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9254896751661508</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.9323896052920266</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.9326939527773629</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.9350107156631599</v>
+      </c>
+      <c r="O9" t="n">
+        <v>297.2036740779877</v>
+      </c>
+      <c r="P9" t="n">
+        <v>221.441232919693</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>32</v>
+      </c>
+      <c r="I10" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>256</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9282021582337634</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.934215142829811</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.9345115743203479</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.9374128747863907</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.8716640472412109</v>
+      </c>
+      <c r="P10" t="n">
+        <v>246.6976199150085</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/UvA/LargeDataset/Results.xlsx
+++ b/UvA/LargeDataset/Results.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,6 +929,5190 @@
         <v>246.6976199150085</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>30</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>32</v>
+      </c>
+      <c r="I11" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>256</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9815195013466743</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9725372409012828</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.972660863986434</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.983881534654804</v>
+      </c>
+      <c r="O11" t="n">
+        <v>291.7471570968628</v>
+      </c>
+      <c r="P11" t="n">
+        <v>211.6195840835571</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>30</v>
+      </c>
+      <c r="E12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>32</v>
+      </c>
+      <c r="I12" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>256</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9736329025471246</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.9636832498243969</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.9638465894508589</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.9769948998147572</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.575427770614624</v>
+      </c>
+      <c r="P12" t="n">
+        <v>276.7731411457062</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>30</v>
+      </c>
+      <c r="E13" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>32</v>
+      </c>
+      <c r="I13" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>256</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9773884446851913</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.9692587558344934</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.9693971578713507</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.9802794956716384</v>
+      </c>
+      <c r="O13" t="n">
+        <v>304.7737591266632</v>
+      </c>
+      <c r="P13" t="n">
+        <v>209.4018869400024</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>30</v>
+      </c>
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>32</v>
+      </c>
+      <c r="I14" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J14" t="n">
+        <v>256</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.9813605201363907</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.9734714403219243</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.973590765619702</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.9837371979820885</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.6832571029663086</v>
+      </c>
+      <c r="P14" t="n">
+        <v>203.7254662513733</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>32</v>
+      </c>
+      <c r="I15" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J15" t="n">
+        <v>256</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.9842915542198448</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.9763567022395293</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.9764631008072741</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.9862971501360684</v>
+      </c>
+      <c r="O15" t="n">
+        <v>298.889799118042</v>
+      </c>
+      <c r="P15" t="n">
+        <v>214.3739039897919</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>32</v>
+      </c>
+      <c r="I16" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J16" t="n">
+        <v>256</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.984721855072085</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.9775496886801917</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.9776506834154116</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.9866706703696057</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.5989141464233398</v>
+      </c>
+      <c r="P16" t="n">
+        <v>219.734827041626</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" t="n">
+        <v>20</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>32</v>
+      </c>
+      <c r="I17" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J17" t="n">
+        <v>256</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9807227488784241</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.9718100091060865</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.9719368083120358</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.9831808160119133</v>
+      </c>
+      <c r="O17" t="n">
+        <v>295.1812579631805</v>
+      </c>
+      <c r="P17" t="n">
+        <v>204.86976313591</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>32</v>
+      </c>
+      <c r="I18" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J18" t="n">
+        <v>256</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9833159291523315</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.9754002213517611</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.9755108931629067</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.9854449328100409</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.5556771755218506</v>
+      </c>
+      <c r="P18" t="n">
+        <v>207.8209149837494</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>30</v>
+      </c>
+      <c r="E19" t="n">
+        <v>20</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>32</v>
+      </c>
+      <c r="I19" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J19" t="n">
+        <v>256</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9409740900392063</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.9367163620009933</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.9370021935471652</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.9486041798921283</v>
+      </c>
+      <c r="O19" t="n">
+        <v>34.80947399139404</v>
+      </c>
+      <c r="P19" t="n">
+        <v>213.1475591659546</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>30</v>
+      </c>
+      <c r="E20" t="n">
+        <v>20</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>32</v>
+      </c>
+      <c r="I20" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>256</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9457556392082689</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.9425104976606437</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.9427692913855548</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.9526893384327659</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.186484098434448</v>
+      </c>
+      <c r="P20" t="n">
+        <v>229.185839176178</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>30</v>
+      </c>
+      <c r="E21" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>32</v>
+      </c>
+      <c r="I21" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J21" t="n">
+        <v>256</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.95018767053144</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.9434669069354289</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.9437217100587079</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.9565815838963733</v>
+      </c>
+      <c r="O21" t="n">
+        <v>40.81142807006836</v>
+      </c>
+      <c r="P21" t="n">
+        <v>189.7116947174072</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>30</v>
+      </c>
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>32</v>
+      </c>
+      <c r="I22" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J22" t="n">
+        <v>256</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9322077889103687</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.932527494400222</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.9328319915508293</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.9409529823051955</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.7407071590423584</v>
+      </c>
+      <c r="P22" t="n">
+        <v>195.8565247058868</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>50</v>
+      </c>
+      <c r="E23" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>32</v>
+      </c>
+      <c r="I23" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J23" t="n">
+        <v>256</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9555884532732809</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.9493926173092498</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.9496205499493148</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.9612715667994125</v>
+      </c>
+      <c r="O23" t="n">
+        <v>33.65648102760315</v>
+      </c>
+      <c r="P23" t="n">
+        <v>188.0465769767761</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>50</v>
+      </c>
+      <c r="E24" t="n">
+        <v>20</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>32</v>
+      </c>
+      <c r="I24" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J24" t="n">
+        <v>256</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.954084791347117</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.9480990215882008</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.9483325265846293</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.9599407592341249</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.7782900333404541</v>
+      </c>
+      <c r="P24" t="n">
+        <v>187.1582539081573</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>50</v>
+      </c>
+      <c r="E25" t="n">
+        <v>20</v>
+      </c>
+      <c r="F25" t="n">
+        <v>10</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>32</v>
+      </c>
+      <c r="I25" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J25" t="n">
+        <v>256</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9445704327745214</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.9402910481883957</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.9405600686270845</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.9516705351843948</v>
+      </c>
+      <c r="O25" t="n">
+        <v>33.61657285690308</v>
+      </c>
+      <c r="P25" t="n">
+        <v>187.1517510414124</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>50</v>
+      </c>
+      <c r="E26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F26" t="n">
+        <v>10</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" t="n">
+        <v>32</v>
+      </c>
+      <c r="I26" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J26" t="n">
+        <v>256</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9479209132655003</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.942922084168032</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.9431797552341095</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.9546458702987904</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.68855881690979</v>
+      </c>
+      <c r="P26" t="n">
+        <v>197.7315781116486</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>20</v>
+      </c>
+      <c r="F27" t="n">
+        <v>10</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>32</v>
+      </c>
+      <c r="I27" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J27" t="n">
+        <v>256</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.8137392946960804</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.9070901187602678</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.9075089149195986</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.837555637341005</v>
+      </c>
+      <c r="O27" t="n">
+        <v>33.08672714233398</v>
+      </c>
+      <c r="P27" t="n">
+        <v>183.7652277946472</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>20</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>32</v>
+      </c>
+      <c r="I28" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J28" t="n">
+        <v>256</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8955325195786681</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.9084761397532019</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.9088881220738878</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.9088851293449515</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.6791849136352539</v>
+      </c>
+      <c r="P28" t="n">
+        <v>217.0442118644714</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>20</v>
+      </c>
+      <c r="F29" t="n">
+        <v>10</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>32</v>
+      </c>
+      <c r="I29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J29" t="n">
+        <v>256</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.8101050811400622</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.9067279143430786</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.9071471213707269</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.8342522231951156</v>
+      </c>
+      <c r="O29" t="n">
+        <v>42.19040584564209</v>
+      </c>
+      <c r="P29" t="n">
+        <v>207.1671359539032</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>20</v>
+      </c>
+      <c r="F30" t="n">
+        <v>10</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>32</v>
+      </c>
+      <c r="I30" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J30" t="n">
+        <v>256</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.8319371374511433</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.9116496207163477</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.9120495139432951</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.8537711620981397</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.7909059524536133</v>
+      </c>
+      <c r="P30" t="n">
+        <v>223.5563702583313</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>20</v>
+      </c>
+      <c r="F31" t="n">
+        <v>10</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>32</v>
+      </c>
+      <c r="I31" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J31" t="n">
+        <v>256</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.8087988531667545</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.9033484664408959</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.9037839581402461</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.8332271966261769</v>
+      </c>
+      <c r="O31" t="n">
+        <v>37.37509489059448</v>
+      </c>
+      <c r="P31" t="n">
+        <v>207.8251659870148</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" t="n">
+        <v>20</v>
+      </c>
+      <c r="F32" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>32</v>
+      </c>
+      <c r="I32" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J32" t="n">
+        <v>256</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.822530785148585</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.9076143784706358</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.9080315220990333</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.8453974290745609</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.8678271770477295</v>
+      </c>
+      <c r="P32" t="n">
+        <v>222.0861611366272</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="n">
+        <v>20</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>32</v>
+      </c>
+      <c r="I33" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J33" t="n">
+        <v>256</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.8107778615198596</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.907197636719613</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.9076153312751095</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.8348711939480379</v>
+      </c>
+      <c r="O33" t="n">
+        <v>37.69725894927979</v>
+      </c>
+      <c r="P33" t="n">
+        <v>218.6478760242462</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="n">
+        <v>20</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>32</v>
+      </c>
+      <c r="I34" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J34" t="n">
+        <v>256</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.8392186192573583</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.917426961260258</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.9178010089203583</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.8602011891828499</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.8026678562164307</v>
+      </c>
+      <c r="P34" t="n">
+        <v>231.9451382160187</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20</v>
+      </c>
+      <c r="E35" t="n">
+        <v>20</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>32</v>
+      </c>
+      <c r="I35" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J35" t="n">
+        <v>256</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.9737883275064788</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.9664865270374523</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.9666373009136698</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.9771328093003134</v>
+      </c>
+      <c r="O35" t="n">
+        <v>293.2820501327515</v>
+      </c>
+      <c r="P35" t="n">
+        <v>207.471118927002</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20</v>
+      </c>
+      <c r="E36" t="n">
+        <v>20</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>32</v>
+      </c>
+      <c r="I36" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J36" t="n">
+        <v>256</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.9756864129606089</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.9676943830183286</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.9678398173523111</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.9787960175528834</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.6343481540679932</v>
+      </c>
+      <c r="P36" t="n">
+        <v>212.538125038147</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20</v>
+      </c>
+      <c r="E37" t="n">
+        <v>20</v>
+      </c>
+      <c r="F37" t="n">
+        <v>10</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>32</v>
+      </c>
+      <c r="I37" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J37" t="n">
+        <v>256</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.9688209127175381</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.9605367301728657</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.9607142882563844</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.9728000384873526</v>
+      </c>
+      <c r="O37" t="n">
+        <v>280.7722249031067</v>
+      </c>
+      <c r="P37" t="n">
+        <v>202.7681078910828</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20</v>
+      </c>
+      <c r="E38" t="n">
+        <v>20</v>
+      </c>
+      <c r="F38" t="n">
+        <v>10</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="n">
+        <v>32</v>
+      </c>
+      <c r="I38" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J38" t="n">
+        <v>256</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.9665444793669395</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.9619184653825102</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.9620897142313234</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.9708086165975014</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.546032190322876</v>
+      </c>
+      <c r="P38" t="n">
+        <v>211.1049869060516</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20</v>
+      </c>
+      <c r="E39" t="n">
+        <v>20</v>
+      </c>
+      <c r="F39" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3</v>
+      </c>
+      <c r="H39" t="n">
+        <v>32</v>
+      </c>
+      <c r="I39" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J39" t="n">
+        <v>256</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.9318221485986768</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.9339239766727051</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.9342217945174158</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.9405634170005517</v>
+      </c>
+      <c r="O39" t="n">
+        <v>35.27851819992065</v>
+      </c>
+      <c r="P39" t="n">
+        <v>212.3950929641724</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20</v>
+      </c>
+      <c r="E40" t="n">
+        <v>20</v>
+      </c>
+      <c r="F40" t="n">
+        <v>10</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" t="n">
+        <v>32</v>
+      </c>
+      <c r="I40" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J40" t="n">
+        <v>256</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.9358481794753346</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.9338686226009794</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.9341662892103157</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.9440426592500354</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.8101370334625244</v>
+      </c>
+      <c r="P40" t="n">
+        <v>214.8231983184814</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20</v>
+      </c>
+      <c r="E41" t="n">
+        <v>20</v>
+      </c>
+      <c r="F41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>32</v>
+      </c>
+      <c r="I41" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J41" t="n">
+        <v>256</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9185378296640127</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.9200743492566859</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.9204351807676082</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.9290553363940127</v>
+      </c>
+      <c r="O41" t="n">
+        <v>36.10631608963013</v>
+      </c>
+      <c r="P41" t="n">
+        <v>198.589732170105</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20</v>
+      </c>
+      <c r="E42" t="n">
+        <v>20</v>
+      </c>
+      <c r="F42" t="n">
+        <v>10</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H42" t="n">
+        <v>32</v>
+      </c>
+      <c r="I42" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J42" t="n">
+        <v>256</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.9398245322326197</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.9357007989875389</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.9359904669551508</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.9475323346435993</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.7942328453063965</v>
+      </c>
+      <c r="P42" t="n">
+        <v>210.439553976059</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10</v>
+      </c>
+      <c r="F43" t="n">
+        <v>10</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="n">
+        <v>32</v>
+      </c>
+      <c r="I43" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J43" t="n">
+        <v>256</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.8044963730068091</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.8997670091464715</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.9002170250909518</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.8292667374031026</v>
+      </c>
+      <c r="O43" t="n">
+        <v>152.0075781345367</v>
+      </c>
+      <c r="P43" t="n">
+        <v>203.1957402229309</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>10</v>
+      </c>
+      <c r="F44" t="n">
+        <v>10</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="n">
+        <v>32</v>
+      </c>
+      <c r="I44" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J44" t="n">
+        <v>256</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.8112840234057768</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.9072774950357974</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.9076959664277179</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.835464299015231</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.297044038772583</v>
+      </c>
+      <c r="P44" t="n">
+        <v>215.6545610427856</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10</v>
+      </c>
+      <c r="F45" t="n">
+        <v>10</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="n">
+        <v>32</v>
+      </c>
+      <c r="I45" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J45" t="n">
+        <v>256</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.8125861230725452</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.9056893488936721</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.9061139587129629</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.836494681545463</v>
+      </c>
+      <c r="O45" t="n">
+        <v>154.1929001808167</v>
+      </c>
+      <c r="P45" t="n">
+        <v>214.8084101676941</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10</v>
+      </c>
+      <c r="F46" t="n">
+        <v>10</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>32</v>
+      </c>
+      <c r="I46" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J46" t="n">
+        <v>256</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.8062345164351121</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.8995763880408191</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.9000288286351534</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.8309659913608889</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.270470142364502</v>
+      </c>
+      <c r="P46" t="n">
+        <v>209.4336607456207</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>10</v>
+      </c>
+      <c r="F47" t="n">
+        <v>10</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="n">
+        <v>32</v>
+      </c>
+      <c r="I47" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J47" t="n">
+        <v>256</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.7775890599152777</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.8798511990084811</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.8803949528334089</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.8063390622127851</v>
+      </c>
+      <c r="O47" t="n">
+        <v>21.4835479259491</v>
+      </c>
+      <c r="P47" t="n">
+        <v>219.7736661434174</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10</v>
+      </c>
+      <c r="F48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" t="n">
+        <v>32</v>
+      </c>
+      <c r="I48" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J48" t="n">
+        <v>256</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.7881458576507659</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.8851998342604741</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8857157189387441</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.8150549566358688</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.505734920501709</v>
+      </c>
+      <c r="P48" t="n">
+        <v>226.229433298111</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>10</v>
+      </c>
+      <c r="F49" t="n">
+        <v>10</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" t="n">
+        <v>32</v>
+      </c>
+      <c r="I49" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J49" t="n">
+        <v>256</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.7844687865795238</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.8823166990696605</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.882844376305699</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.8117255711882501</v>
+      </c>
+      <c r="O49" t="n">
+        <v>19.52261590957642</v>
+      </c>
+      <c r="P49" t="n">
+        <v>216.888729095459</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>10</v>
+      </c>
+      <c r="F50" t="n">
+        <v>10</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="n">
+        <v>32</v>
+      </c>
+      <c r="I50" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J50" t="n">
+        <v>256</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.7943421400669294</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.8885421444789271</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8890442894331891</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.8205873342214811</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.3751189708709717</v>
+      </c>
+      <c r="P50" t="n">
+        <v>217.8132500648499</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>10</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10</v>
+      </c>
+      <c r="F51" t="n">
+        <v>10</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>32</v>
+      </c>
+      <c r="I51" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J51" t="n">
+        <v>256</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.7988071062192883</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.8953944501465855</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.8958647742043003</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.8243768151869307</v>
+      </c>
+      <c r="O51" t="n">
+        <v>201.6969559192657</v>
+      </c>
+      <c r="P51" t="n">
+        <v>218.5830340385437</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E52" t="n">
+        <v>10</v>
+      </c>
+      <c r="F52" t="n">
+        <v>10</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="n">
+        <v>32</v>
+      </c>
+      <c r="I52" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J52" t="n">
+        <v>256</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.8078945242941676</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.9015450994097514</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.9019891375673054</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.8324698184488953</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.2882919311523438</v>
+      </c>
+      <c r="P52" t="n">
+        <v>199.8059778213501</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F53" t="n">
+        <v>10</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="n">
+        <v>32</v>
+      </c>
+      <c r="I53" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J53" t="n">
+        <v>256</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.899471863684173</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.9107035719299208</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.9111075887057076</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.9125892720021891</v>
+      </c>
+      <c r="O53" t="n">
+        <v>142.4887218475342</v>
+      </c>
+      <c r="P53" t="n">
+        <v>224.9642558097839</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>10</v>
+      </c>
+      <c r="E54" t="n">
+        <v>10</v>
+      </c>
+      <c r="F54" t="n">
+        <v>10</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="n">
+        <v>32</v>
+      </c>
+      <c r="I54" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J54" t="n">
+        <v>256</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.8088871238321705</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.9001801263862321</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.90063123090278</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.8334974425865437</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.3321938514709473</v>
+      </c>
+      <c r="P54" t="n">
+        <v>203.5149412155151</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>10</v>
+      </c>
+      <c r="E55" t="n">
+        <v>10</v>
+      </c>
+      <c r="F55" t="n">
+        <v>10</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" t="n">
+        <v>32</v>
+      </c>
+      <c r="I55" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J55" t="n">
+        <v>256</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.8019393092111673</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.8892555910979735</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.8897568918160732</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.8275924078299937</v>
+      </c>
+      <c r="O55" t="n">
+        <v>19.43957996368408</v>
+      </c>
+      <c r="P55" t="n">
+        <v>213.3540439605713</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>10</v>
+      </c>
+      <c r="E56" t="n">
+        <v>10</v>
+      </c>
+      <c r="F56" t="n">
+        <v>10</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="n">
+        <v>32</v>
+      </c>
+      <c r="I56" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J56" t="n">
+        <v>256</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.7432284735175596</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.862909652550062</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.8635224053141795</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.7755201427341329</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.3723697662353516</v>
+      </c>
+      <c r="P56" t="n">
+        <v>206.4894509315491</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>10</v>
+      </c>
+      <c r="E57" t="n">
+        <v>10</v>
+      </c>
+      <c r="F57" t="n">
+        <v>10</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="n">
+        <v>32</v>
+      </c>
+      <c r="I57" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J57" t="n">
+        <v>256</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.7564348320271186</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.8717436990261931</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.8723173080191977</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.7870777068281124</v>
+      </c>
+      <c r="O57" t="n">
+        <v>22.30090880393982</v>
+      </c>
+      <c r="P57" t="n">
+        <v>226.1058020591736</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>10</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="n">
+        <v>32</v>
+      </c>
+      <c r="I58" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J58" t="n">
+        <v>256</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.8019759427955966</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.8864425890885633</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.8869561312358849</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.8276323641289062</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.4066751003265381</v>
+      </c>
+      <c r="P58" t="n">
+        <v>208.5130801200867</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>30</v>
+      </c>
+      <c r="E59" t="n">
+        <v>10</v>
+      </c>
+      <c r="F59" t="n">
+        <v>10</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="n">
+        <v>32</v>
+      </c>
+      <c r="I59" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J59" t="n">
+        <v>256</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.9379503156247228</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.9324712544759753</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.9327761444140451</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.9459752471597361</v>
+      </c>
+      <c r="O59" t="n">
+        <v>154.883318901062</v>
+      </c>
+      <c r="P59" t="n">
+        <v>204.3944849967957</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>30</v>
+      </c>
+      <c r="E60" t="n">
+        <v>10</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="n">
+        <v>32</v>
+      </c>
+      <c r="I60" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J60" t="n">
+        <v>256</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.9468898705001854</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.9404794711062727</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.9407478249221921</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.9537139711370902</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.3047678470611572</v>
+      </c>
+      <c r="P60" t="n">
+        <v>218.9153411388397</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>30</v>
+      </c>
+      <c r="E61" t="n">
+        <v>10</v>
+      </c>
+      <c r="F61" t="n">
+        <v>10</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="n">
+        <v>32</v>
+      </c>
+      <c r="I61" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J61" t="n">
+        <v>256</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.9402249820096208</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.9323708316275883</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.9326754827682839</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.9478842555594469</v>
+      </c>
+      <c r="O61" t="n">
+        <v>156.9820790290833</v>
+      </c>
+      <c r="P61" t="n">
+        <v>221.029470205307</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>30</v>
+      </c>
+      <c r="E62" t="n">
+        <v>10</v>
+      </c>
+      <c r="F62" t="n">
+        <v>10</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="n">
+        <v>32</v>
+      </c>
+      <c r="I62" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J62" t="n">
+        <v>256</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.932116809362853</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.9296732292362815</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.929989081433769</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.9407491061138328</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.3636369705200195</v>
+      </c>
+      <c r="P62" t="n">
+        <v>209.59406208992</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>30</v>
+      </c>
+      <c r="E63" t="n">
+        <v>10</v>
+      </c>
+      <c r="F63" t="n">
+        <v>10</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3</v>
+      </c>
+      <c r="H63" t="n">
+        <v>32</v>
+      </c>
+      <c r="I63" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J63" t="n">
+        <v>256</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.800423368794367</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.8792873111219468</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8798278411570469</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.82554667337318</v>
+      </c>
+      <c r="O63" t="n">
+        <v>17.8470458984375</v>
+      </c>
+      <c r="P63" t="n">
+        <v>232.9028480052948</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>30</v>
+      </c>
+      <c r="E64" t="n">
+        <v>10</v>
+      </c>
+      <c r="F64" t="n">
+        <v>10</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3</v>
+      </c>
+      <c r="H64" t="n">
+        <v>32</v>
+      </c>
+      <c r="I64" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J64" t="n">
+        <v>256</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.8989617621537239</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.9024193804261489</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.9028607837691766</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.91206635309384</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.6343481540679932</v>
+      </c>
+      <c r="P64" t="n">
+        <v>240.9025747776031</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>30</v>
+      </c>
+      <c r="E65" t="n">
+        <v>10</v>
+      </c>
+      <c r="F65" t="n">
+        <v>10</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="n">
+        <v>32</v>
+      </c>
+      <c r="I65" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J65" t="n">
+        <v>256</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.8010502454970085</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.8864350150268118</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.8869410497922624</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.826033141721465</v>
+      </c>
+      <c r="O65" t="n">
+        <v>20.49219393730164</v>
+      </c>
+      <c r="P65" t="n">
+        <v>227.8975071907043</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>30</v>
+      </c>
+      <c r="E66" t="n">
+        <v>10</v>
+      </c>
+      <c r="F66" t="n">
+        <v>10</v>
+      </c>
+      <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="n">
+        <v>32</v>
+      </c>
+      <c r="I66" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J66" t="n">
+        <v>256</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.8948006123975845</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.9018714195385605</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.9023158851662665</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.9085005367120615</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.4715530872344971</v>
+      </c>
+      <c r="P66" t="n">
+        <v>241.2727868556976</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20</v>
+      </c>
+      <c r="E67" t="n">
+        <v>10</v>
+      </c>
+      <c r="F67" t="n">
+        <v>10</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="n">
+        <v>16</v>
+      </c>
+      <c r="I67" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J67" t="n">
+        <v>256</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.9680599071740428</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.9630412633023634</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.9632076328401313</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.9721416691324528</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20</v>
+      </c>
+      <c r="E68" t="n">
+        <v>10</v>
+      </c>
+      <c r="F68" t="n">
+        <v>10</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="n">
+        <v>16</v>
+      </c>
+      <c r="I68" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J68" t="n">
+        <v>256</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.9595073975537998</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.9541991111147723</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.9544053161207569</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.9646837243094958</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.3794701099395752</v>
+      </c>
+      <c r="P68" t="n">
+        <v>164.5999748706818</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20</v>
+      </c>
+      <c r="E69" t="n">
+        <v>10</v>
+      </c>
+      <c r="F69" t="n">
+        <v>10</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="n">
+        <v>16</v>
+      </c>
+      <c r="I69" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J69" t="n">
+        <v>256</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.9650992516401377</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.9591112069429308</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.9592951506751078</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.9695514990639166</v>
+      </c>
+      <c r="O69" t="n">
+        <v>173.6116681098938</v>
+      </c>
+      <c r="P69" t="n">
+        <v>159.5148191452026</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10</v>
+      </c>
+      <c r="F70" t="n">
+        <v>10</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="n">
+        <v>16</v>
+      </c>
+      <c r="I70" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J70" t="n">
+        <v>256</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.9625637756767874</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.9566311420746916</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.9568262579061225</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.967339080499303</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.258394718170166</v>
+      </c>
+      <c r="P70" t="n">
+        <v>144.3082540035248</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>30</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="n">
+        <v>16</v>
+      </c>
+      <c r="I71" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J71" t="n">
+        <v>256</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.9679412818315202</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.9632372108183419</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.9634025372845335</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.9720283091618632</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.323354959487915</v>
+      </c>
+      <c r="P71" t="n">
+        <v>149.9944908618927</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>30</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10</v>
+      </c>
+      <c r="F72" t="n">
+        <v>10</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="n">
+        <v>16</v>
+      </c>
+      <c r="I72" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J72" t="n">
+        <v>256</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.9734783126479182</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.9651582291940062</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.9653149829934602</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.976862675632245</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.3265879154205322</v>
+      </c>
+      <c r="P72" t="n">
+        <v>139.3028111457825</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>30</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10</v>
+      </c>
+      <c r="F73" t="n">
+        <v>10</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="n">
+        <v>16</v>
+      </c>
+      <c r="I73" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J73" t="n">
+        <v>256</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.9522417730471001</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.9495626554519793</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.9497895105269615</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.9583313111853096</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.3650810718536377</v>
+      </c>
+      <c r="P73" t="n">
+        <v>145.3784348964691</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>30</v>
+      </c>
+      <c r="E74" t="n">
+        <v>10</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="n">
+        <v>16</v>
+      </c>
+      <c r="I74" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J74" t="n">
+        <v>256</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.9676558847709509</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.9615212072995379</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.9616943385431141</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.9717831628744793</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.2846601009368896</v>
+      </c>
+      <c r="P74" t="n">
+        <v>163.9235200881958</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>50</v>
+      </c>
+      <c r="E75" t="n">
+        <v>10</v>
+      </c>
+      <c r="F75" t="n">
+        <v>10</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="n">
+        <v>16</v>
+      </c>
+      <c r="I75" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J75" t="n">
+        <v>256</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.9746462795942332</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.9704591851528424</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.9705924908651292</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.9779243872520048</v>
+      </c>
+      <c r="O75" t="n">
+        <v>158.8730497360229</v>
+      </c>
+      <c r="P75" t="n">
+        <v>160.3142220973969</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>50</v>
+      </c>
+      <c r="E76" t="n">
+        <v>10</v>
+      </c>
+      <c r="F76" t="n">
+        <v>10</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="n">
+        <v>16</v>
+      </c>
+      <c r="I76" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J76" t="n">
+        <v>256</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.9812105426712707</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.9748384664995861</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.9749517519767918</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.9836136391569756</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.2388660907745361</v>
+      </c>
+      <c r="P76" t="n">
+        <v>147.7669541835785</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>50</v>
+      </c>
+      <c r="E77" t="n">
+        <v>10</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="n">
+        <v>16</v>
+      </c>
+      <c r="I77" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J77" t="n">
+        <v>256</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.9825817505675939</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.9747359953620207</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.9748495635499885</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.9848007264221266</v>
+      </c>
+      <c r="O77" t="n">
+        <v>137.6107709407806</v>
+      </c>
+      <c r="P77" t="n">
+        <v>147.5345129966736</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>50</v>
+      </c>
+      <c r="E78" t="n">
+        <v>10</v>
+      </c>
+      <c r="F78" t="n">
+        <v>10</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="n">
+        <v>16</v>
+      </c>
+      <c r="I78" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J78" t="n">
+        <v>256</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.9773770657046215</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.9695509512407007</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.9696878999254619</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.9802613748550967</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.3182971477508545</v>
+      </c>
+      <c r="P78" t="n">
+        <v>146.6447250843048</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20</v>
+      </c>
+      <c r="E79" t="n">
+        <v>20</v>
+      </c>
+      <c r="F79" t="n">
+        <v>10</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="n">
+        <v>16</v>
+      </c>
+      <c r="I79" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J79" t="n">
+        <v>256</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.991699566417698</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.9874511231920335</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.9875075758911471</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.9927583681728483</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.8617560863494873</v>
+      </c>
+      <c r="P79" t="n">
+        <v>151.7391669750214</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20</v>
+      </c>
+      <c r="E80" t="n">
+        <v>20</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="n">
+        <v>16</v>
+      </c>
+      <c r="I80" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J80" t="n">
+        <v>256</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.9923428034756099</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.9878067217546476</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.9878615596394109</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.993318944617908</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.6535470485687256</v>
+      </c>
+      <c r="P80" t="n">
+        <v>143.3414258956909</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20</v>
+      </c>
+      <c r="E81" t="n">
+        <v>20</v>
+      </c>
+      <c r="F81" t="n">
+        <v>10</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" t="n">
+        <v>16</v>
+      </c>
+      <c r="I81" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J81" t="n">
+        <v>256</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.9877036759342838</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.9841170942470682</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.9841885582943234</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.989272985465133</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.6620421409606934</v>
+      </c>
+      <c r="P81" t="n">
+        <v>140.1012997627258</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20</v>
+      </c>
+      <c r="E82" t="n">
+        <v>20</v>
+      </c>
+      <c r="F82" t="n">
+        <v>10</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="n">
+        <v>16</v>
+      </c>
+      <c r="I82" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J82" t="n">
+        <v>256</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.9937097795548215</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.9904444429247655</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.9904874153648952</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.9945116440659406</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.7137579917907715</v>
+      </c>
+      <c r="P82" t="n">
+        <v>141.1627259254456</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>30</v>
+      </c>
+      <c r="E83" t="n">
+        <v>20</v>
+      </c>
+      <c r="F83" t="n">
+        <v>10</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="n">
+        <v>16</v>
+      </c>
+      <c r="I83" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J83" t="n">
+        <v>256</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.9926477324139066</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.98855849010081</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.9886099669458811</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.9935859280155975</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.6208930015563965</v>
+      </c>
+      <c r="P83" t="n">
+        <v>6602.646077871323</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>30</v>
+      </c>
+      <c r="E84" t="n">
+        <v>20</v>
+      </c>
+      <c r="F84" t="n">
+        <v>10</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="n">
+        <v>16</v>
+      </c>
+      <c r="I84" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J84" t="n">
+        <v>256</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.9955490533700477</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.9924244408578325</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.9924585226219905</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.9961169640568258</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1.064727067947388</v>
+      </c>
+      <c r="P84" t="n">
+        <v>191.6334381103516</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>30</v>
+      </c>
+      <c r="E85" t="n">
+        <v>20</v>
+      </c>
+      <c r="F85" t="n">
+        <v>10</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="n">
+        <v>16</v>
+      </c>
+      <c r="I85" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J85" t="n">
+        <v>256</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.9918288170771323</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.9879005892178928</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.9879550526615289</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.992873791515024</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.6571381092071533</v>
+      </c>
+      <c r="P85" t="n">
+        <v>186.3133339881897</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>30</v>
+      </c>
+      <c r="E86" t="n">
+        <v>20</v>
+      </c>
+      <c r="F86" t="n">
+        <v>10</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="n">
+        <v>16</v>
+      </c>
+      <c r="I86" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J86" t="n">
+        <v>256</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.9916376279853995</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.9866532426204767</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.9867132512117077</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.9927034441237849</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.9360470771789551</v>
+      </c>
+      <c r="P86" t="n">
+        <v>210.4973649978638</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>50</v>
+      </c>
+      <c r="E87" t="n">
+        <v>20</v>
+      </c>
+      <c r="F87" t="n">
+        <v>10</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2</v>
+      </c>
+      <c r="H87" t="n">
+        <v>16</v>
+      </c>
+      <c r="I87" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J87" t="n">
+        <v>256</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.996676379835127</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.9944149989506053</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.9944401166060338</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.9971001256175798</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.5448739528656006</v>
+      </c>
+      <c r="P87" t="n">
+        <v>140.7066562175751</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>50</v>
+      </c>
+      <c r="E88" t="n">
+        <v>20</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="n">
+        <v>16</v>
+      </c>
+      <c r="I88" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J88" t="n">
+        <v>256</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.997446378724533</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.9948505656722284</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.9948737301254521</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.9977721248424966</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.6554198265075684</v>
+      </c>
+      <c r="P88" t="n">
+        <v>150.1774940490723</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>50</v>
+      </c>
+      <c r="E89" t="n">
+        <v>20</v>
+      </c>
+      <c r="F89" t="n">
+        <v>10</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="n">
+        <v>16</v>
+      </c>
+      <c r="I89" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J89" t="n">
+        <v>256</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.9952211811458547</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.9918379982003942</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.9918747138424042</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.9958306739436066</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.6541829109191895</v>
+      </c>
+      <c r="P89" t="n">
+        <v>173.5123703479767</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>50</v>
+      </c>
+      <c r="E90" t="n">
+        <v>20</v>
+      </c>
+      <c r="F90" t="n">
+        <v>10</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90" t="n">
+        <v>16</v>
+      </c>
+      <c r="I90" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J90" t="n">
+        <v>256</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.9966098540106215</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.9944227503133611</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.9944478447360853</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.9970426810168236</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.7655529975891113</v>
+      </c>
+      <c r="P90" t="n">
+        <v>158.1176750659943</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>10</v>
+      </c>
+      <c r="E91" t="n">
+        <v>30</v>
+      </c>
+      <c r="F91" t="n">
+        <v>10</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="n">
+        <v>16</v>
+      </c>
+      <c r="I91" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J91" t="n">
+        <v>256</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.9466231311741889</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.951782503976309</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.9519994189310227</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.9534318295869788</v>
+      </c>
+      <c r="O91" t="n">
+        <v>454.3338439464569</v>
+      </c>
+      <c r="P91" t="n">
+        <v>222.4169738292694</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>10</v>
+      </c>
+      <c r="E92" t="n">
+        <v>30</v>
+      </c>
+      <c r="F92" t="n">
+        <v>10</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="n">
+        <v>16</v>
+      </c>
+      <c r="I92" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J92" t="n">
+        <v>256</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.9697007585388672</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.9691832850057582</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.9693219236946272</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.9735664385113789</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1.062855958938599</v>
+      </c>
+      <c r="P92" t="n">
+        <v>207.9847111701965</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>10</v>
+      </c>
+      <c r="E93" t="n">
+        <v>30</v>
+      </c>
+      <c r="F93" t="n">
+        <v>10</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="n">
+        <v>16</v>
+      </c>
+      <c r="I93" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J93" t="n">
+        <v>256</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.9620951367294039</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.9638219858864466</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.9639847311869065</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.9669304908487205</v>
+      </c>
+      <c r="O93" t="n">
+        <v>465.8568942546844</v>
+      </c>
+      <c r="P93" t="n">
+        <v>159.040552854538</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>10</v>
+      </c>
+      <c r="E94" t="n">
+        <v>30</v>
+      </c>
+      <c r="F94" t="n">
+        <v>10</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="n">
+        <v>16</v>
+      </c>
+      <c r="I94" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J94" t="n">
+        <v>256</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.9630439884785148</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.9646262917625996</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.9647853788478941</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.9677548730432113</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.8434550762176514</v>
+      </c>
+      <c r="P94" t="n">
+        <v>161.7317719459534</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>20</v>
+      </c>
+      <c r="E95" t="n">
+        <v>30</v>
+      </c>
+      <c r="F95" t="n">
+        <v>10</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95" t="n">
+        <v>16</v>
+      </c>
+      <c r="I95" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J95" t="n">
+        <v>256</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.9981565840634149</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.9959796372549902</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.9959977223255655</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.9983916982564641</v>
+      </c>
+      <c r="O95" t="n">
+        <v>482.1269469261169</v>
+      </c>
+      <c r="P95" t="n">
+        <v>150.4539911746979</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>20</v>
+      </c>
+      <c r="E96" t="n">
+        <v>30</v>
+      </c>
+      <c r="F96" t="n">
+        <v>10</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="n">
+        <v>16</v>
+      </c>
+      <c r="I96" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J96" t="n">
+        <v>256</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.996693041941215</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.9940869201009825</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.9941135178994854</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.9971147595102484</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.955965042114258</v>
+      </c>
+      <c r="P96" t="n">
+        <v>176.7525291442871</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>20</v>
+      </c>
+      <c r="E97" t="n">
+        <v>30</v>
+      </c>
+      <c r="F97" t="n">
+        <v>10</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2</v>
+      </c>
+      <c r="H97" t="n">
+        <v>16</v>
+      </c>
+      <c r="I97" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J97" t="n">
+        <v>256</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.99480743530111</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.9909608329864823</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.9910014895422342</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.995469520118595</v>
+      </c>
+      <c r="O97" t="n">
+        <v>447.4971840381622</v>
+      </c>
+      <c r="P97" t="n">
+        <v>145.5265588760376</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20</v>
+      </c>
+      <c r="E98" t="n">
+        <v>30</v>
+      </c>
+      <c r="F98" t="n">
+        <v>10</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2</v>
+      </c>
+      <c r="H98" t="n">
+        <v>16</v>
+      </c>
+      <c r="I98" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J98" t="n">
+        <v>256</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.9969068567140816</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.9948873757275383</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.9949103728023908</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.9973012987078865</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.8452022075653076</v>
+      </c>
+      <c r="P98" t="n">
+        <v>145.3524460792542</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>30</v>
+      </c>
+      <c r="E99" t="n">
+        <v>30</v>
+      </c>
+      <c r="F99" t="n">
+        <v>10</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="n">
+        <v>16</v>
+      </c>
+      <c r="I99" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J99" t="n">
+        <v>256</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.9971529470719288</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.9950642078801619</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.9950864020346055</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.9975160307122219</v>
+      </c>
+      <c r="O99" t="n">
+        <v>453.369402885437</v>
+      </c>
+      <c r="P99" t="n">
+        <v>137.836012840271</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>30</v>
+      </c>
+      <c r="E100" t="n">
+        <v>30</v>
+      </c>
+      <c r="F100" t="n">
+        <v>10</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="n">
+        <v>16</v>
+      </c>
+      <c r="I100" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J100" t="n">
+        <v>256</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.9973770088957067</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.9958930569600832</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.9959115305144757</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.9977115013637604</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.7659080028533936</v>
+      </c>
+      <c r="P100" t="n">
+        <v>139.8627231121063</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>30</v>
+      </c>
+      <c r="E101" t="n">
+        <v>30</v>
+      </c>
+      <c r="F101" t="n">
+        <v>10</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" t="n">
+        <v>16</v>
+      </c>
+      <c r="I101" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J101" t="n">
+        <v>256</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.9986304813129535</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.997062768614666</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.9970759798318842</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.9988051110510624</v>
+      </c>
+      <c r="O101" t="n">
+        <v>396.4143779277802</v>
+      </c>
+      <c r="P101" t="n">
+        <v>137.7051618099213</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>30</v>
+      </c>
+      <c r="E102" t="n">
+        <v>30</v>
+      </c>
+      <c r="F102" t="n">
+        <v>10</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2</v>
+      </c>
+      <c r="H102" t="n">
+        <v>16</v>
+      </c>
+      <c r="I102" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J102" t="n">
+        <v>256</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.9978272145840951</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.9954630490810835</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.9954834554913455</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.9981042638805384</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.7913901805877686</v>
+      </c>
+      <c r="P102" t="n">
+        <v>146.3674051761627</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>10</v>
+      </c>
+      <c r="E103" t="n">
+        <v>30</v>
+      </c>
+      <c r="F103" t="n">
+        <v>10</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="n">
+        <v>16</v>
+      </c>
+      <c r="I103" t="n">
+        <v>100000</v>
+      </c>
+      <c r="J103" t="n">
+        <v>256</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.9779745582455996</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.9766053745571796</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.9767106118110119</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.9807837874892091</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1.661425113677979</v>
+      </c>
+      <c r="P103" t="n">
+        <v>312.2140679359436</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>(0, 1)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>10</v>
+      </c>
+      <c r="E104" t="n">
+        <v>30</v>
+      </c>
+      <c r="F104" t="n">
+        <v>10</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2</v>
+      </c>
+      <c r="H104" t="n">
+        <v>16</v>
+      </c>
+      <c r="I104" t="n">
+        <v>100000</v>
+      </c>
+      <c r="J104" t="n">
+        <v>256</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.9752044742215324</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.9732095606271656</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.9733300937767763</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.9783689246390741</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0.9924478530883789</v>
+      </c>
+      <c r="P104" t="n">
+        <v>317.3998689651489</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>(1, 0)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>10</v>
+      </c>
+      <c r="E105" t="n">
+        <v>30</v>
+      </c>
+      <c r="F105" t="n">
+        <v>10</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2</v>
+      </c>
+      <c r="H105" t="n">
+        <v>16</v>
+      </c>
+      <c r="I105" t="n">
+        <v>100000</v>
+      </c>
+      <c r="J105" t="n">
+        <v>256</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.9770775496047786</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.9740775982492687</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.974194211480482</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.9800014695051682</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1.067347764968872</v>
+      </c>
+      <c r="P105" t="n">
+        <v>333.3636000156403</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>10</v>
+      </c>
+      <c r="E106" t="n">
+        <v>30</v>
+      </c>
+      <c r="F106" t="n">
+        <v>10</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2</v>
+      </c>
+      <c r="H106" t="n">
+        <v>16</v>
+      </c>
+      <c r="I106" t="n">
+        <v>100000</v>
+      </c>
+      <c r="J106" t="n">
+        <v>256</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.9735426046199527</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.9734122104051149</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.9735318385203398</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.9769195549582138</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1.285577058792114</v>
+      </c>
+      <c r="P106" t="n">
+        <v>314.480849981308</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
